--- a/data_year/zb/公共管理、社会保障及其他/人民检察院办理刑事抗诉案件情况/人民检察院提出抗诉案件数.xlsx
+++ b/data_year/zb/公共管理、社会保障及其他/人民检察院办理刑事抗诉案件情况/人民检察院提出抗诉案件数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,445 +483,361 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2242</v>
+        <v>3728</v>
       </c>
       <c r="C2" t="n">
-        <v>2766</v>
+        <v>4405</v>
       </c>
       <c r="D2" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E2" t="n">
-        <v>434</v>
+        <v>582</v>
       </c>
       <c r="F2" t="n">
-        <v>223</v>
+        <v>873</v>
       </c>
       <c r="G2" t="n">
-        <v>287</v>
+        <v>1020</v>
       </c>
       <c r="H2" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I2" t="n">
-        <v>50</v>
+        <v>126</v>
       </c>
       <c r="J2" t="n">
-        <v>3053</v>
+        <v>5425</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2348</v>
+        <v>3745</v>
       </c>
       <c r="C3" t="n">
-        <v>2893</v>
+        <v>4457</v>
       </c>
       <c r="D3" t="n">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="E3" t="n">
-        <v>461</v>
+        <v>612</v>
       </c>
       <c r="F3" t="n">
-        <v>279</v>
+        <v>728</v>
       </c>
       <c r="G3" t="n">
-        <v>355</v>
+        <v>889</v>
       </c>
       <c r="H3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I3" t="n">
-        <v>56</v>
+        <v>142</v>
       </c>
       <c r="J3" t="n">
-        <v>3248</v>
+        <v>5346</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2715</v>
+        <v>4553</v>
       </c>
       <c r="C4" t="n">
-        <v>3332</v>
+        <v>5264</v>
       </c>
       <c r="D4" t="n">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="E4" t="n">
-        <v>536</v>
+        <v>617</v>
       </c>
       <c r="F4" t="n">
-        <v>499</v>
+        <v>824</v>
       </c>
       <c r="G4" t="n">
-        <v>631</v>
+        <v>932</v>
       </c>
       <c r="H4" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="I4" t="n">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="J4" t="n">
-        <v>3963</v>
+        <v>6196</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3728</v>
+        <v>4632</v>
       </c>
       <c r="C5" t="n">
-        <v>4405</v>
+        <v>5421</v>
       </c>
       <c r="D5" t="n">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="E5" t="n">
-        <v>582</v>
+        <v>672</v>
       </c>
       <c r="F5" t="n">
-        <v>873</v>
+        <v>729</v>
       </c>
       <c r="G5" t="n">
-        <v>1020</v>
+        <v>933</v>
       </c>
       <c r="H5" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I5" t="n">
-        <v>126</v>
+        <v>68</v>
       </c>
       <c r="J5" t="n">
-        <v>5425</v>
+        <v>6354</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3745</v>
+        <v>5181</v>
       </c>
       <c r="C6" t="n">
-        <v>4457</v>
+        <v>6126</v>
       </c>
       <c r="D6" t="n">
-        <v>100</v>
+        <v>194</v>
       </c>
       <c r="E6" t="n">
-        <v>612</v>
+        <v>751</v>
       </c>
       <c r="F6" t="n">
-        <v>728</v>
+        <v>772</v>
       </c>
       <c r="G6" t="n">
-        <v>889</v>
+        <v>927</v>
       </c>
       <c r="H6" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="I6" t="n">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="J6" t="n">
-        <v>5346</v>
+        <v>7053</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4553</v>
+        <v>4777</v>
       </c>
       <c r="C7" t="n">
-        <v>5264</v>
+        <v>5696</v>
       </c>
       <c r="D7" t="n">
-        <v>94</v>
+        <v>197</v>
       </c>
       <c r="E7" t="n">
-        <v>617</v>
+        <v>722</v>
       </c>
       <c r="F7" t="n">
-        <v>824</v>
+        <v>783</v>
       </c>
       <c r="G7" t="n">
-        <v>932</v>
+        <v>895</v>
       </c>
       <c r="H7" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="I7" t="n">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="J7" t="n">
-        <v>6196</v>
+        <v>6591</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4632</v>
+        <v>5109</v>
       </c>
       <c r="C8" t="n">
-        <v>5421</v>
+        <v>6158</v>
       </c>
       <c r="D8" t="n">
-        <v>117</v>
+        <v>201</v>
       </c>
       <c r="E8" t="n">
-        <v>672</v>
+        <v>848</v>
       </c>
       <c r="F8" t="n">
-        <v>729</v>
+        <v>922</v>
       </c>
       <c r="G8" t="n">
-        <v>933</v>
+        <v>1027</v>
       </c>
       <c r="H8" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I8" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="J8" t="n">
-        <v>6354</v>
+        <v>7185</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5181</v>
+        <v>5798</v>
       </c>
       <c r="C9" t="n">
-        <v>6126</v>
+        <v>6812</v>
       </c>
       <c r="D9" t="n">
-        <v>194</v>
+        <v>240</v>
       </c>
       <c r="E9" t="n">
-        <v>751</v>
+        <v>774</v>
       </c>
       <c r="F9" t="n">
-        <v>772</v>
+        <v>996</v>
       </c>
       <c r="G9" t="n">
-        <v>927</v>
+        <v>1120</v>
       </c>
       <c r="H9" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I9" t="n">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="J9" t="n">
-        <v>7053</v>
+        <v>7932</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4777</v>
+        <v>6365</v>
       </c>
       <c r="C10" t="n">
-        <v>5696</v>
+        <v>7128</v>
       </c>
       <c r="D10" t="n">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E10" t="n">
-        <v>722</v>
+        <v>574</v>
       </c>
       <c r="F10" t="n">
-        <v>783</v>
+        <v>1236</v>
       </c>
       <c r="G10" t="n">
-        <v>895</v>
+        <v>1376</v>
       </c>
       <c r="H10" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I10" t="n">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="J10" t="n">
-        <v>6591</v>
+        <v>8504</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>5109</v>
-      </c>
-      <c r="C11" t="n">
-        <v>6158</v>
-      </c>
-      <c r="D11" t="n">
-        <v>201</v>
-      </c>
-      <c r="E11" t="n">
-        <v>848</v>
-      </c>
-      <c r="F11" t="n">
-        <v>922</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1027</v>
-      </c>
-      <c r="H11" t="n">
-        <v>30</v>
-      </c>
-      <c r="I11" t="n">
-        <v>75</v>
-      </c>
+          <t>2019年</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
-        <v>7185</v>
+        <v>8302</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>5798</v>
-      </c>
-      <c r="C12" t="n">
-        <v>6812</v>
-      </c>
-      <c r="D12" t="n">
-        <v>240</v>
-      </c>
-      <c r="E12" t="n">
-        <v>774</v>
-      </c>
-      <c r="F12" t="n">
-        <v>996</v>
-      </c>
-      <c r="G12" t="n">
-        <v>1120</v>
-      </c>
-      <c r="H12" t="n">
-        <v>16</v>
-      </c>
-      <c r="I12" t="n">
-        <v>108</v>
-      </c>
+          <t>2020年</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
-        <v>7932</v>
+        <v>8903</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>6365</v>
-      </c>
-      <c r="C13" t="n">
-        <v>7128</v>
-      </c>
-      <c r="D13" t="n">
-        <v>189</v>
-      </c>
-      <c r="E13" t="n">
-        <v>574</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1236</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1376</v>
-      </c>
-      <c r="H13" t="n">
-        <v>26</v>
-      </c>
-      <c r="I13" t="n">
-        <v>114</v>
-      </c>
+          <t>2021年</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
-        <v>8504</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>8302</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>8903</v>
+        <v>8850</v>
       </c>
     </row>
   </sheetData>
